--- a/Survival_records.xlsx
+++ b/Survival_records.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A28776-F481-6D48-BE42-9FC1FCE4E60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD69518-EA88-AB45-846E-3C9FE64F87ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EC5933AB-10BE-A744-9717-A7D2D2425A64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13420" xr2:uid="{EC5933AB-10BE-A744-9717-A7D2D2425A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,10 +473,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1165813E-C350-4C4D-B578-01E0CD2087CC}">
   <dimension ref="A1:AG121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1433,7 @@
       <c r="S10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="T10" s="5" t="s">
         <v>109</v>
       </c>
       <c r="AD10" s="10"/>
@@ -1753,7 +1749,7 @@
       <c r="S15" s="1">
         <v>0</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2087,7 +2083,6 @@
       <c r="B27" s="10"/>
       <c r="E27" s="9"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="15"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
